--- a/ArticleHeadlines.xlsx
+++ b/ArticleHeadlines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="40"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
@@ -1417,7 +1417,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1427,19 +1427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1452,27 +1440,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1501,7 +1474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1512,10 +1485,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1829,52 +1799,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="5"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4"/>
+      <c r="A7" s="1"/>
       <c r="B7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="3"/>
     </row>
   </sheetData>
@@ -1897,7 +1867,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1971,7 +1941,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2045,7 +2015,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2119,7 +2089,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2167,32 +2137,32 @@
     <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2251,7 +2221,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2285,7 +2255,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2334,7 +2304,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2373,7 +2343,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2437,7 +2407,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2511,7 +2481,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2535,7 +2505,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2609,7 +2579,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2633,7 +2603,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2657,7 +2627,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2731,7 +2701,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2755,7 +2725,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2784,7 +2754,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2833,7 +2803,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2907,7 +2877,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2981,7 +2951,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3055,7 +3025,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3129,7 +3099,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3203,7 +3173,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3277,7 +3247,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3321,7 +3291,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3345,7 +3315,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3419,7 +3389,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3463,7 +3433,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3537,7 +3507,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3566,7 +3536,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3587,7 +3557,7 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3595,7 +3565,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3669,7 +3639,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3685,7 +3655,7 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4289,7 +4259,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4818,7 +4788,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5392,7 +5362,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6041,7 +6011,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6256,7 +6226,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
